--- a/dados/Conclusoes/log_extracao_dados.xlsx
+++ b/dados/Conclusoes/log_extracao_dados.xlsx
@@ -490,16 +490,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Valores Invalidos</t>
+          <t>Carga Dados</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variavel PROCEDEN - Código Municipio invalido </t>
+          <t>Carregamento da base dos dados a serem analisados - Casos completos</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>128</v>
+        <v>4680029</v>
       </c>
     </row>
     <row r="5">
@@ -513,12 +513,10 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variavel MUUH - Código Municipio invalido </t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
+          <t>Corrigir valores invalidos para null. Ver arquivo valores_tornados_null.xslx</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -526,16 +524,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carga Dados</t>
+          <t>Inferir valor</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Carregamento da base dos dados a serem analisados - Casos analiticos</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>3555000</v>
+          <t>Inferir o valor de BASMAIMP a partir de BASDIAGSP. Regra 0 &lt;= 1. Falta definir outras regras aplicaveis</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3029</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -544,15 +544,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Valores Invalidos</t>
+          <t>Inferir valor</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Corrigir valores invalidos para null. Ver arquivo valores_tornados_null.xslx</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>Inferir o valor de ESTDFIMT a partir de DATAOBITO ate 730 dias apos o inicio do tratamento</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>321611</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -560,18 +564,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Inferir valor</t>
+          <t>Valores Invalidos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Inferir o valor de BASMAIMP a partir de BASDIAGSP. Regra 0 &lt;= 1. Falta definir outras regras aplicaveis</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2267</t>
-        </is>
+          <t xml:space="preserve">Variavel PROCEDEN - Código Municipio invalido </t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="9">
@@ -580,18 +582,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Inferir valor</t>
+          <t>Valores Invalidos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Inferir o valor de ESTDFIMT a partir de DATAOBITO ate 730 dias apos o inicio do tratamento</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>276382</t>
-        </is>
+          <t xml:space="preserve">Variavel MUUH - Código Municipio invalido </t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -700,17 +700,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Carga Dados</t>
+          <t>Gerar Dados</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Carregamento da base dos dados para seleção</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>3555000</v>
-      </c>
+          <t xml:space="preserve">Geracao das variaveis _tempo_diagnostico_tratamento e _tempo_consulta_tratamento </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -718,19 +716,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dados Nulos</t>
+          <t>Gerar Valor</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Eliminacao dos registros de quem nao fez tratamento (RZNTR nao nulo)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>145053</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Analise de ESTDFIMT e criacao da variavel dependente _RESFINAL </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -738,17 +732,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Selecao Dados</t>
+          <t>Dados Nulos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Eliminacao de registros com ESTDFIMT invalido (8 , 9 e nulos)</t>
+          <t>Setar valores nulos para sem informacao</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1515524</t>
+          <t>{'ALCOOLIS': '9', 'TABAGISM': '9', 'HISTFAMC': '9', 'ORIENC': '9', 'ESTCONJ': '9', 'MAISUMTU': '1', 'DIAGANT': '9', 'BASMAIMP': '9', 'EXDIAG': '9', 'LATERALI': '9'}</t>
         </is>
       </c>
     </row>
@@ -758,19 +752,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Selecao Dados</t>
+          <t>Gerar Valor</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Eliminacao de registros com ESTADIAM que nao sao exatos</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>823427</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Desmembramento de PRITRATH </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -778,19 +768,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Selecao Dados</t>
+          <t>Carga Dados</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Eliminacao de registros com TNM que nao sao exatos ou incompletos. 
-  Analisar o que deve ser feito com &lt; nao se aplica - Hemato | nao se aplica - Geral&gt;</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>182644</t>
-        </is>
+          <t>Carregamento da base dos dados para seleção</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4680029</v>
       </c>
     </row>
     <row r="21">
@@ -804,12 +791,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Eliminacao de registros com DATAINITRT nulo</t>
+          <t>Eliminacao dos registros de quem nao fez tratamento (RZNTR nao nulo)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>636897</t>
         </is>
       </c>
     </row>
@@ -819,17 +806,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Dados Nulos</t>
+          <t>Selecao Dados</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Eliminacao de registros com DTDIAGNO nulo</t>
+          <t>Eliminacao de registros com ESTDFIMT invalido (8 , 9 e nulos)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5302</t>
+          <t>1898104</t>
         </is>
       </c>
     </row>
@@ -839,15 +826,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Gerar Dados</t>
+          <t>Selecao Dados</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geracao das variaveis _tempo_diagnostico_tratamento e _tempo_consulta_tratamento </t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>Eliminacao de registros com ESTADIAM que nao sao exatos</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>928842</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -855,17 +846,18 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Dados Nulos</t>
+          <t>Selecao Dados</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Eliminacao dos registros ['SEXO', 'TIPOHIST'] com valores nulos</t>
+          <t>Eliminacao de registros com TNM que nao sao exatos ou incompletos. 
+  Analisar o que deve ser feito com &lt; nao se aplica - Hemato | nao se aplica - Geral&gt;</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>212445</t>
         </is>
       </c>
     </row>
@@ -880,12 +872,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Setar valores nulos para sem informacao</t>
+          <t>Eliminacao de registros com DATAINITRT nulo</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'ALCOOLIS': '9', 'TABAGISM': '9', 'HISTFAMC': '9', 'ORIENC': '9', 'ESTCONJ': '9', 'MAISUMTU': '1', 'DIAGANT': '9', 'BASMAIMP': '9', 'EXDIAG': '9', 'LATERALI': '9'}</t>
+          <t>2320</t>
         </is>
       </c>
     </row>
@@ -895,17 +887,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Remocao Registros</t>
+          <t>Dados Nulos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Eliminacao de colunas com dados sem significancia</t>
+          <t>Eliminacao de registros com DTDIAGNO nulo</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['ESTDFIMT', 'RZNTR', 'DTDIAGNO', 'DTTRIAGE', 'DATAPRICON', 'DATAINITRT', 'DATAOBITO', 'TPCASO', 'LOCALNAS', 'BASDIAGSP', 'VALOR_TOT', 'AnaliseLOCTUDET', 'AnaliseLOCTUDET_tipo', 'AnaliseLOCTUPRI', 'AnaliseLOCTUPRO', 'AnaliseTNM', 'AnaliseESTADIAM', 'CLIATEN', 'CLITRAT', 'CNES', 'DTINITRT', 'LOCTUPRO', 'ESTADRES', 'OUTROESTA', 'OCUPACAO', 'PROCEDEN', 'ESTADIAG']</t>
+          <t>7121</t>
         </is>
       </c>
     </row>
@@ -915,17 +907,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Informacao</t>
+          <t>Dados Nulos</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Quantidade de registros com valores validos</t>
+          <t>Eliminacao dos registros ['SEXO', 'TIPOHIST'] com valores nulos</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>881019</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -935,46 +927,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Informacao</t>
+          <t>Remocao Registros</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Quantidade de registros com valores nulos</t>
+          <t>Eliminacao de colunas com dados sem significancia</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SEXO                             0
-IDADE                            0
-RACACOR                          0
-INSTRUC                          0
-HISTFAMC                         0
-ALCOOLIS                         0
-TABAGISM                         0
-ANOPRIDI                         0
-ORIENC                           0
-EXDIAG                           0
-ESTCONJ                          0
-ANTRI                            0
-DTPRICON                         0
-DIAGANT                          0
-BASMAIMP                         0
-LOCTUDET                         0
-LOCTUPRI                         0
-TIPOHIST                         0
-LATERALI                         0
-MAISUMTU                         0
-TNM                              0
-ESTADIAM                         0
-PTNM                             0
-PRITRATH                         0
-UFUH                             0
-MUUH                             0
-_tempo_diagnostico_tratamento    0
-_tempo_consulta_tratamento       0
-_RESFINAL                        0
-dtype: int64</t>
+          <t>['ESTDFIMT', 'RZNTR', 'DTDIAGNO', 'DTTRIAGE', 'DATAPRICON', 'DATAINITRT', 'DATAOBITO', 'RZNTR', 'TPCASO', 'LOCALNAS', 'BASDIAGSP', 'VALOR_TOT', 'AnaliseLOCTUDET', 'AnaliseLOCTUDET_tipo', 'AnaliseLOCTUPRI', 'AnaliseLOCTUPRO', 'AnaliseTNM', 'AnaliseESTADIAM', 'CLIATEN', 'CLITRAT', 'CNES', 'DTINITRT', 'LOCTUPRO', 'ESTADRES', 'OUTROESTA', 'OCUPACAO', 'PROCEDEN', 'ESTADIAG']</t>
         </is>
       </c>
     </row>
